--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H2">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I2">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J2">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.37835899999999</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N2">
-        <v>154.135077</v>
+        <v>175.542523</v>
       </c>
       <c r="O2">
-        <v>0.8798212945621328</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P2">
-        <v>0.879821294562133</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q2">
-        <v>423.4255318461193</v>
+        <v>2472.272588385828</v>
       </c>
       <c r="R2">
-        <v>3810.829786615073</v>
+        <v>22250.45329547246</v>
       </c>
       <c r="S2">
-        <v>0.3688367833860238</v>
+        <v>0.6916699961150181</v>
       </c>
       <c r="T2">
-        <v>0.3688367833860239</v>
+        <v>0.6916699961150182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H3">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I3">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J3">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.625225</v>
       </c>
       <c r="O3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q3">
-        <v>34.68284257127223</v>
+        <v>177.8087562846723</v>
       </c>
       <c r="R3">
-        <v>312.14558314145</v>
+        <v>1600.27880656205</v>
       </c>
       <c r="S3">
-        <v>0.03021147080313726</v>
+        <v>0.04974572073742629</v>
       </c>
       <c r="T3">
-        <v>0.03021147080313726</v>
+        <v>0.04974572073742628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H4">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I4">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J4">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.568043</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N4">
-        <v>7.704129</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O4">
-        <v>0.04397608177309095</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P4">
-        <v>0.04397608177309097</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q4">
-        <v>21.16406584878867</v>
+        <v>8.269685059792224</v>
       </c>
       <c r="R4">
-        <v>190.476592639098</v>
+        <v>74.42716553813001</v>
       </c>
       <c r="S4">
-        <v>0.01843555804725088</v>
+        <v>0.002313617462754577</v>
       </c>
       <c r="T4">
-        <v>0.01843555804725089</v>
+        <v>0.002313617462754577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H5">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I5">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J5">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2415473333333333</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N5">
-        <v>0.724642</v>
+        <v>1.816984</v>
       </c>
       <c r="O5">
-        <v>0.004136342453276182</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P5">
-        <v>0.004136342453276183</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q5">
-        <v>1.990669030178222</v>
+        <v>25.58969564733689</v>
       </c>
       <c r="R5">
-        <v>17.916021271604</v>
+        <v>230.307260826032</v>
       </c>
       <c r="S5">
-        <v>0.001734028552023983</v>
+        <v>0.007159252896354064</v>
       </c>
       <c r="T5">
-        <v>0.001734028552023983</v>
+        <v>0.007159252896354065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.857387</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H6">
-        <v>5.572160999999999</v>
+        <v>126.752498</v>
       </c>
       <c r="I6">
-        <v>0.09448118804524663</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J6">
-        <v>0.09448118804524662</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>51.37835899999999</v>
+        <v>0.023043</v>
       </c>
       <c r="N6">
-        <v>154.135077</v>
+        <v>0.069129</v>
       </c>
       <c r="O6">
-        <v>0.8798212945621328</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P6">
-        <v>0.879821294562133</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q6">
-        <v>95.42949608793298</v>
+        <v>0.9735859371379999</v>
       </c>
       <c r="R6">
-        <v>858.8654647913968</v>
+        <v>8.762273434241999</v>
       </c>
       <c r="S6">
-        <v>0.0831265611777372</v>
+        <v>0.0002723810410394699</v>
       </c>
       <c r="T6">
-        <v>0.0831265611777372</v>
+        <v>0.0002723810410394699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I7">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J7">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.208408333333334</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N7">
-        <v>12.625225</v>
+        <v>175.542523</v>
       </c>
       <c r="O7">
-        <v>0.07206628121150001</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P7">
-        <v>0.07206628121150001</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q7">
-        <v>7.816642929025</v>
+        <v>108.683466722467</v>
       </c>
       <c r="R7">
-        <v>70.349786361225</v>
+        <v>978.151200502203</v>
       </c>
       <c r="S7">
-        <v>0.006808907866865357</v>
+        <v>0.03040647433411731</v>
       </c>
       <c r="T7">
-        <v>0.006808907866865356</v>
+        <v>0.03040647433411731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I8">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J8">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.568043</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N8">
-        <v>7.704129</v>
+        <v>12.625225</v>
       </c>
       <c r="O8">
-        <v>0.04397608177309095</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P8">
-        <v>0.04397608177309097</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q8">
-        <v>4.769849683641</v>
+        <v>7.816642929025</v>
       </c>
       <c r="R8">
-        <v>42.928647152769</v>
+        <v>70.349786361225</v>
       </c>
       <c r="S8">
-        <v>0.00415491245149655</v>
+        <v>0.002186869445444601</v>
       </c>
       <c r="T8">
-        <v>0.00415491245149655</v>
+        <v>0.002186869445444601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I9">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J9">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2415473333333333</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N9">
-        <v>0.724642</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O9">
-        <v>0.004136342453276182</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P9">
-        <v>0.004136342453276183</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q9">
-        <v>0.448646876818</v>
+        <v>0.363543261865</v>
       </c>
       <c r="R9">
-        <v>4.037821891361999</v>
+        <v>3.271889356785</v>
       </c>
       <c r="S9">
-        <v>0.0003908065491475237</v>
+        <v>0.000101708835709731</v>
       </c>
       <c r="T9">
-        <v>0.0003908065491475237</v>
+        <v>0.000101708835709731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.472213333333333</v>
+        <v>1.857387</v>
       </c>
       <c r="H10">
-        <v>4.416639999999999</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I10">
-        <v>0.07488825150029908</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J10">
-        <v>0.07488825150029908</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.37835899999999</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N10">
-        <v>154.135077</v>
+        <v>1.816984</v>
       </c>
       <c r="O10">
-        <v>0.8798212945621328</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P10">
-        <v>0.879821294562133</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q10">
-        <v>75.63990516458664</v>
+        <v>1.124947486936</v>
       </c>
       <c r="R10">
-        <v>680.7591464812797</v>
+        <v>10.124527382424</v>
       </c>
       <c r="S10">
-        <v>0.06588827838248772</v>
+        <v>0.0003147276022773228</v>
       </c>
       <c r="T10">
-        <v>0.06588827838248773</v>
+        <v>0.0003147276022773228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.472213333333333</v>
+        <v>1.857387</v>
       </c>
       <c r="H11">
-        <v>4.416639999999999</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I11">
-        <v>0.07488825150029908</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J11">
-        <v>0.07488825150029908</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.208408333333334</v>
+        <v>0.023043</v>
       </c>
       <c r="N11">
-        <v>12.625225</v>
+        <v>0.069129</v>
       </c>
       <c r="O11">
-        <v>0.07206628121150001</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P11">
-        <v>0.07206628121150001</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q11">
-        <v>6.195674860444444</v>
+        <v>0.04279976864099999</v>
       </c>
       <c r="R11">
-        <v>55.76107374399999</v>
+        <v>0.3851979177689999</v>
       </c>
       <c r="S11">
-        <v>0.005396917792058091</v>
+        <v>1.197413098730041E-05</v>
       </c>
       <c r="T11">
-        <v>0.005396917792058091</v>
+        <v>1.197413098730041E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H12">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I12">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J12">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.568043</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N12">
-        <v>7.704129</v>
+        <v>175.542523</v>
       </c>
       <c r="O12">
-        <v>0.04397608177309095</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P12">
-        <v>0.04397608177309097</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q12">
-        <v>3.780707145173333</v>
+        <v>139.0427853910507</v>
       </c>
       <c r="R12">
-        <v>34.02636430655999</v>
+        <v>1251.385068519456</v>
       </c>
       <c r="S12">
-        <v>0.003293291871820954</v>
+        <v>0.03890012908893707</v>
       </c>
       <c r="T12">
-        <v>0.003293291871820955</v>
+        <v>0.03890012908893708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H13">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I13">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J13">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2415473333333333</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N13">
-        <v>0.724642</v>
+        <v>12.625225</v>
       </c>
       <c r="O13">
-        <v>0.004136342453276182</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P13">
-        <v>0.004136342453276183</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q13">
-        <v>0.3556092047644444</v>
+        <v>10.00012088346667</v>
       </c>
       <c r="R13">
-        <v>3.20048284288</v>
+        <v>90.00108795120001</v>
       </c>
       <c r="S13">
-        <v>0.0003097634539323108</v>
+        <v>0.00279774309884378</v>
       </c>
       <c r="T13">
-        <v>0.0003097634539323109</v>
+        <v>0.00279774309884378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.819271666666667</v>
+        <v>2.376224</v>
       </c>
       <c r="H14">
-        <v>11.457815</v>
+        <v>7.128672</v>
       </c>
       <c r="I14">
-        <v>0.1942779423643085</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J14">
-        <v>0.1942779423643085</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>51.37835899999999</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N14">
-        <v>154.135077</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O14">
-        <v>0.8798212945621328</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P14">
-        <v>0.879821294562133</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q14">
-        <v>196.2279108085283</v>
+        <v>0.4650943631466667</v>
       </c>
       <c r="R14">
-        <v>1766.051197276755</v>
+        <v>4.18584926832</v>
       </c>
       <c r="S14">
-        <v>0.1709298707558333</v>
+        <v>0.0001301198815462366</v>
       </c>
       <c r="T14">
-        <v>0.1709298707558334</v>
+        <v>0.0001301198815462366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.819271666666667</v>
+        <v>2.376224</v>
       </c>
       <c r="H15">
-        <v>11.457815</v>
+        <v>7.128672</v>
       </c>
       <c r="I15">
-        <v>0.1942779423643085</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J15">
-        <v>0.1942779423643085</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.208408333333334</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N15">
-        <v>12.625225</v>
+        <v>1.816984</v>
       </c>
       <c r="O15">
-        <v>0.07206628121150001</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P15">
-        <v>0.07206628121150001</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q15">
-        <v>16.07305470926389</v>
+        <v>1.439186996138667</v>
       </c>
       <c r="R15">
-        <v>144.657492383375</v>
+        <v>12.952682965248</v>
       </c>
       <c r="S15">
-        <v>0.01400088882761785</v>
+        <v>0.0004026426813549514</v>
       </c>
       <c r="T15">
-        <v>0.01400088882761785</v>
+        <v>0.0004026426813549515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.819271666666667</v>
+        <v>2.376224</v>
       </c>
       <c r="H16">
-        <v>11.457815</v>
+        <v>7.128672</v>
       </c>
       <c r="I16">
-        <v>0.1942779423643085</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J16">
-        <v>0.1942779423643085</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.568043</v>
+        <v>0.023043</v>
       </c>
       <c r="N16">
-        <v>7.704129</v>
+        <v>0.069129</v>
       </c>
       <c r="O16">
-        <v>0.04397608177309095</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P16">
-        <v>0.04397608177309097</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q16">
-        <v>9.808053868681666</v>
+        <v>0.054755329632</v>
       </c>
       <c r="R16">
-        <v>88.272484818135</v>
+        <v>0.492797966688</v>
       </c>
       <c r="S16">
-        <v>0.008543582680120681</v>
+        <v>1.531894937951376E-05</v>
       </c>
       <c r="T16">
-        <v>0.008543582680120683</v>
+        <v>1.531894937951377E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.819271666666667</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H17">
-        <v>11.457815</v>
+        <v>10.853215</v>
       </c>
       <c r="I17">
-        <v>0.1942779423643085</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J17">
-        <v>0.1942779423643085</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2415473333333333</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N17">
-        <v>0.724642</v>
+        <v>175.542523</v>
       </c>
       <c r="O17">
-        <v>0.004136342453276182</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P17">
-        <v>0.004136342453276183</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q17">
-        <v>0.9225348863588889</v>
+        <v>211.6889715290494</v>
       </c>
       <c r="R17">
-        <v>8.30281397723</v>
+        <v>1905.200743761445</v>
       </c>
       <c r="S17">
-        <v>0.0008036001007366325</v>
+        <v>0.05922441999435352</v>
       </c>
       <c r="T17">
-        <v>0.0008036001007366325</v>
+        <v>0.05922441999435354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.107047</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H18">
-        <v>6.321141</v>
+        <v>10.853215</v>
       </c>
       <c r="I18">
-        <v>0.1071808426715449</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J18">
-        <v>0.1071808426715449</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.37835899999999</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N18">
-        <v>154.135077</v>
+        <v>12.625225</v>
       </c>
       <c r="O18">
-        <v>0.8798212945621328</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P18">
-        <v>0.879821294562133</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q18">
-        <v>108.256617195873</v>
+        <v>15.22492014981944</v>
       </c>
       <c r="R18">
-        <v>974.3095547628568</v>
+        <v>137.024281348375</v>
       </c>
       <c r="S18">
-        <v>0.09429998775153893</v>
+        <v>0.004259490037768297</v>
       </c>
       <c r="T18">
-        <v>0.09429998775153894</v>
+        <v>0.004259490037768297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,61 +1597,61 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.107047</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H19">
-        <v>6.321141</v>
+        <v>10.853215</v>
       </c>
       <c r="I19">
-        <v>0.1071808426715449</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J19">
-        <v>0.1071808426715449</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>4.208408333333334</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N19">
-        <v>12.625225</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O19">
-        <v>0.07206628121150001</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P19">
-        <v>0.07206628121150001</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q19">
-        <v>8.867314153525001</v>
+        <v>0.7080938944194445</v>
       </c>
       <c r="R19">
-        <v>79.805827381725</v>
+        <v>6.372845049775</v>
       </c>
       <c r="S19">
-        <v>0.007724124748453095</v>
+        <v>0.0001981040858936753</v>
       </c>
       <c r="T19">
-        <v>0.007724124748453094</v>
+        <v>0.0001981040858936753</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.107047</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H20">
-        <v>6.321141</v>
+        <v>10.853215</v>
       </c>
       <c r="I20">
-        <v>0.1071808426715449</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J20">
-        <v>0.1071808426715449</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.568043</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N20">
-        <v>7.704129</v>
+        <v>1.816984</v>
       </c>
       <c r="O20">
-        <v>0.04397608177309095</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P20">
-        <v>0.04397608177309097</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q20">
-        <v>5.410987299021</v>
+        <v>2.191124222617777</v>
       </c>
       <c r="R20">
-        <v>48.698885691189</v>
+        <v>19.72011800356</v>
       </c>
       <c r="S20">
-        <v>0.004713393501832655</v>
+        <v>0.0006130128569419071</v>
       </c>
       <c r="T20">
-        <v>0.004713393501832656</v>
+        <v>0.0006130128569419072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.107047</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H21">
-        <v>6.321141</v>
+        <v>10.853215</v>
       </c>
       <c r="I21">
-        <v>0.1071808426715449</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J21">
-        <v>0.1071808426715449</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2415473333333333</v>
+        <v>0.023043</v>
       </c>
       <c r="N21">
-        <v>0.724642</v>
+        <v>0.069129</v>
       </c>
       <c r="O21">
-        <v>0.004136342453276182</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P21">
-        <v>0.004136342453276183</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q21">
-        <v>0.508951584058</v>
+        <v>0.08336354441499999</v>
       </c>
       <c r="R21">
-        <v>4.580564256522</v>
+        <v>0.7502718997349999</v>
       </c>
       <c r="S21">
-        <v>0.0004433366697202266</v>
+        <v>2.332269617538575E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004433366697202266</v>
+        <v>2.332269617538575E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.161562666666667</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H22">
-        <v>6.484688</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I22">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J22">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>51.37835899999999</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N22">
-        <v>154.135077</v>
+        <v>175.542523</v>
       </c>
       <c r="O22">
-        <v>0.8798212945621328</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P22">
-        <v>0.879821294562133</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q22">
-        <v>111.0575426889973</v>
+        <v>133.4494349712521</v>
       </c>
       <c r="R22">
-        <v>999.5178842009758</v>
+        <v>1201.044914741269</v>
       </c>
       <c r="S22">
-        <v>0.0967398131085118</v>
+        <v>0.03733527225182836</v>
       </c>
       <c r="T22">
-        <v>0.09673981310851183</v>
+        <v>0.03733527225182837</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.161562666666667</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H23">
-        <v>6.484688</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I23">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J23">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>12.625225</v>
       </c>
       <c r="O23">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P23">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q23">
-        <v>9.096738339422224</v>
+        <v>9.59784053368611</v>
       </c>
       <c r="R23">
-        <v>81.87064505480001</v>
+        <v>86.38056480317499</v>
       </c>
       <c r="S23">
-        <v>0.007923971173368353</v>
+        <v>0.002685196752103134</v>
       </c>
       <c r="T23">
-        <v>0.007923971173368353</v>
+        <v>0.002685196752103134</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.161562666666667</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H24">
-        <v>6.484688</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I24">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J24">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>2.568043</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N24">
-        <v>7.704129</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O24">
-        <v>0.04397608177309095</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P24">
-        <v>0.04397608177309097</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q24">
-        <v>5.550985875194667</v>
+        <v>0.4463847570061111</v>
       </c>
       <c r="R24">
-        <v>49.958872876752</v>
+        <v>4.017462813055</v>
       </c>
       <c r="S24">
-        <v>0.004835343220569229</v>
+        <v>0.0001248854776753427</v>
       </c>
       <c r="T24">
-        <v>0.004835343220569231</v>
+        <v>0.0001248854776753427</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,46 +1969,418 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.161562666666667</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H25">
-        <v>6.484688</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I25">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J25">
-        <v>0.1099539346301649</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6056613333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.816984</v>
+      </c>
+      <c r="O25">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="P25">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="Q25">
+        <v>1.381292031172444</v>
+      </c>
+      <c r="R25">
+        <v>12.431628280552</v>
+      </c>
+      <c r="S25">
+        <v>0.0003864453532846631</v>
+      </c>
+      <c r="T25">
+        <v>0.0003864453532846632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.280634333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.841902999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.04054650254048892</v>
+      </c>
+      <c r="J26">
+        <v>0.04054650254048892</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.023043</v>
+      </c>
+      <c r="N26">
+        <v>0.069129</v>
+      </c>
+      <c r="O26">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="P26">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="Q26">
+        <v>0.05255265694299999</v>
+      </c>
+      <c r="R26">
+        <v>0.4729739124869999</v>
+      </c>
+      <c r="S26">
+        <v>1.470270559741609E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.470270559741609E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.864558666666666</v>
+      </c>
+      <c r="H27">
+        <v>11.593676</v>
+      </c>
+      <c r="I27">
+        <v>0.06870647148718791</v>
+      </c>
+      <c r="J27">
+        <v>0.06870647148718792</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>58.51417433333334</v>
+      </c>
+      <c r="N27">
+        <v>175.542523</v>
+      </c>
+      <c r="O27">
+        <v>0.9208013000516164</v>
+      </c>
+      <c r="P27">
+        <v>0.9208013000516164</v>
+      </c>
+      <c r="Q27">
+        <v>226.1314595427275</v>
+      </c>
+      <c r="R27">
+        <v>2035.183135884548</v>
+      </c>
+      <c r="S27">
+        <v>0.06326500826736194</v>
+      </c>
+      <c r="T27">
+        <v>0.06326500826736195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.864558666666666</v>
+      </c>
+      <c r="H28">
+        <v>11.593676</v>
+      </c>
+      <c r="I28">
+        <v>0.06870647148718791</v>
+      </c>
+      <c r="J28">
+        <v>0.06870647148718792</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N28">
+        <v>12.625225</v>
+      </c>
+      <c r="O28">
+        <v>0.06622511397676659</v>
+      </c>
+      <c r="P28">
+        <v>0.06622511397676657</v>
+      </c>
+      <c r="Q28">
+        <v>16.26364089745556</v>
+      </c>
+      <c r="R28">
+        <v>146.3727680771</v>
+      </c>
+      <c r="S28">
+        <v>0.004550093905180482</v>
+      </c>
+      <c r="T28">
+        <v>0.004550093905180482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.864558666666666</v>
+      </c>
+      <c r="H29">
+        <v>11.593676</v>
+      </c>
+      <c r="I29">
+        <v>0.06870647148718791</v>
+      </c>
+      <c r="J29">
+        <v>0.06870647148718792</v>
+      </c>
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="L29">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M25">
-        <v>0.2415473333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.724642</v>
-      </c>
-      <c r="O25">
-        <v>0.004136342453276182</v>
-      </c>
-      <c r="P25">
-        <v>0.004136342453276183</v>
-      </c>
-      <c r="Q25">
-        <v>0.5221196979662223</v>
-      </c>
-      <c r="R25">
-        <v>4.699077281696</v>
-      </c>
-      <c r="S25">
-        <v>0.0004548071277155052</v>
-      </c>
-      <c r="T25">
-        <v>0.0004548071277155053</v>
+      <c r="M29">
+        <v>0.1957283333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.5871850000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.003080055488155473</v>
+      </c>
+      <c r="P29">
+        <v>0.003080055488155473</v>
+      </c>
+      <c r="Q29">
+        <v>0.7564036268955555</v>
+      </c>
+      <c r="R29">
+        <v>6.80763264206</v>
+      </c>
+      <c r="S29">
+        <v>0.0002116197445759107</v>
+      </c>
+      <c r="T29">
+        <v>0.0002116197445759107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.864558666666666</v>
+      </c>
+      <c r="H30">
+        <v>11.593676</v>
+      </c>
+      <c r="I30">
+        <v>0.06870647148718791</v>
+      </c>
+      <c r="J30">
+        <v>0.06870647148718792</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6056613333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.816984</v>
+      </c>
+      <c r="O30">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="P30">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="Q30">
+        <v>2.340613754798222</v>
+      </c>
+      <c r="R30">
+        <v>21.065523793184</v>
+      </c>
+      <c r="S30">
+        <v>0.0006548356820738207</v>
+      </c>
+      <c r="T30">
+        <v>0.0006548356820738208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.864558666666666</v>
+      </c>
+      <c r="H31">
+        <v>11.593676</v>
+      </c>
+      <c r="I31">
+        <v>0.06870647148718791</v>
+      </c>
+      <c r="J31">
+        <v>0.06870647148718792</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.023043</v>
+      </c>
+      <c r="N31">
+        <v>0.069129</v>
+      </c>
+      <c r="O31">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="P31">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="Q31">
+        <v>0.08905102535599997</v>
+      </c>
+      <c r="R31">
+        <v>0.8014592282039998</v>
+      </c>
+      <c r="S31">
+        <v>2.491388799575624E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.491388799575624E-05</v>
       </c>
     </row>
   </sheetData>
